--- a/BalanceSheet/TMO_bal.xlsx
+++ b/BalanceSheet/TMO_bal.xlsx
@@ -4937,7 +4937,7 @@
         <v>16961000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>16070000000.0</v>
+        <v>15520000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>15119000000.0</v>
@@ -5064,7 +5064,7 @@
         <v>19969000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>18490000000.0</v>
+        <v>17919000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>16392000000.0</v>
